--- a/REGULAR/ACCOUNTING/ANGCAYA, JOHN.xlsx
+++ b/REGULAR/ACCOUNTING/ANGCAYA, JOHN.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25831"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26026"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ASUS\Desktop\LEAVECARD\REGULAR\ACCOUNTING\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{952974E9-2D85-4A38-8663-CA8A200B69A6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4A9DE242-BA00-4F60-9B25-63E553F3012D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{2C4B9B69-0AD3-46D4-A495-D1BDE1D16EC6}"/>
   </bookViews>
@@ -30,20 +30,12 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="205" uniqueCount="126">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="212" uniqueCount="129">
   <si>
     <t>PERIOD</t>
   </si>
@@ -421,6 +413,15 @@
   </si>
   <si>
     <t>GRAD 5/6</t>
+  </si>
+  <si>
+    <t>11/14,15,16</t>
+  </si>
+  <si>
+    <t>10/24,25</t>
+  </si>
+  <si>
+    <t>9/14,15</t>
   </si>
 </sst>
 </file>
@@ -2828,7 +2829,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{1D52DCCA-84C7-4E23-9F01-BAD20F9E44D8}" name="Table1" displayName="Table1" ref="A8:K213" totalsRowShown="0" headerRowDxfId="24" headerRowBorderDxfId="23" tableBorderDxfId="22" totalsRowBorderDxfId="21">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{1D52DCCA-84C7-4E23-9F01-BAD20F9E44D8}" name="Table1" displayName="Table1" ref="A8:K214" totalsRowShown="0" headerRowDxfId="24" headerRowBorderDxfId="23" tableBorderDxfId="22" totalsRowBorderDxfId="21">
   <tableColumns count="11">
     <tableColumn id="1" xr3:uid="{29298656-164E-44DD-A190-558D78410746}" name="PERIOD" dataDxfId="20"/>
     <tableColumn id="2" xr3:uid="{653A013C-2253-41B2-B51E-E0CEE6FCA4B9}" name="PARTICULARS" dataDxfId="19"/>
@@ -3206,12 +3207,12 @@
   <sheetPr codeName="Sheet2">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A2:K213"/>
+  <dimension ref="A2:K214"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="3576" topLeftCell="A147" activePane="bottomLeft"/>
       <selection activeCell="B4" sqref="B4:C4"/>
-      <selection pane="bottomLeft" activeCell="D155" sqref="D155"/>
+      <selection pane="bottomLeft" activeCell="K151" sqref="K151"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3374,7 +3375,7 @@
       <c r="D9" s="11"/>
       <c r="E9" s="13">
         <f>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</f>
-        <v>131.70100000000002</v>
+        <v>126.70100000000001</v>
       </c>
       <c r="F9" s="11"/>
       <c r="G9" s="13" t="str">
@@ -3384,7 +3385,7 @@
       <c r="H9" s="11"/>
       <c r="I9" s="13">
         <f>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</f>
-        <v>130.55000000000001</v>
+        <v>127.55</v>
       </c>
       <c r="J9" s="11"/>
       <c r="K9" s="20"/>
@@ -6515,7 +6516,9 @@
       <c r="A150" s="40">
         <v>44805</v>
       </c>
-      <c r="B150" s="20"/>
+      <c r="B150" s="20" t="s">
+        <v>56</v>
+      </c>
       <c r="C150" s="13">
         <v>1.25</v>
       </c>
@@ -6526,20 +6529,28 @@
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v>1.25</v>
       </c>
-      <c r="H150" s="39"/>
+      <c r="H150" s="39">
+        <v>2</v>
+      </c>
       <c r="I150" s="9"/>
       <c r="J150" s="11"/>
-      <c r="K150" s="20"/>
+      <c r="K150" s="20" t="s">
+        <v>128</v>
+      </c>
     </row>
     <row r="151" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A151" s="40">
         <v>44835</v>
       </c>
-      <c r="B151" s="20"/>
+      <c r="B151" s="20" t="s">
+        <v>69</v>
+      </c>
       <c r="C151" s="13">
         <v>1.25</v>
       </c>
-      <c r="D151" s="39"/>
+      <c r="D151" s="39">
+        <v>2</v>
+      </c>
       <c r="E151" s="9"/>
       <c r="F151" s="20"/>
       <c r="G151" s="13">
@@ -6549,37 +6560,45 @@
       <c r="H151" s="39"/>
       <c r="I151" s="9"/>
       <c r="J151" s="11"/>
-      <c r="K151" s="20"/>
+      <c r="K151" s="20" t="s">
+        <v>127</v>
+      </c>
     </row>
     <row r="152" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A152" s="40">
-        <v>44866</v>
-      </c>
-      <c r="B152" s="20"/>
-      <c r="C152" s="13">
-        <v>1.25</v>
-      </c>
+      <c r="A152" s="40"/>
+      <c r="B152" s="20" t="s">
+        <v>51</v>
+      </c>
+      <c r="C152" s="13"/>
       <c r="D152" s="39"/>
       <c r="E152" s="9"/>
       <c r="F152" s="20"/>
-      <c r="G152" s="13">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
-      </c>
-      <c r="H152" s="39"/>
+      <c r="G152" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H152" s="39">
+        <v>1</v>
+      </c>
       <c r="I152" s="9"/>
       <c r="J152" s="11"/>
-      <c r="K152" s="20"/>
+      <c r="K152" s="49">
+        <v>44845</v>
+      </c>
     </row>
     <row r="153" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A153" s="40">
-        <v>44896</v>
-      </c>
-      <c r="B153" s="20"/>
+        <v>44866</v>
+      </c>
+      <c r="B153" s="20" t="s">
+        <v>71</v>
+      </c>
       <c r="C153" s="13">
         <v>1.25</v>
       </c>
-      <c r="D153" s="39"/>
+      <c r="D153" s="39">
+        <v>3</v>
+      </c>
       <c r="E153" s="9"/>
       <c r="F153" s="20"/>
       <c r="G153" s="13">
@@ -6589,20 +6608,24 @@
       <c r="H153" s="39"/>
       <c r="I153" s="9"/>
       <c r="J153" s="11"/>
-      <c r="K153" s="20"/>
+      <c r="K153" s="20" t="s">
+        <v>126</v>
+      </c>
     </row>
     <row r="154" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A154" s="48" t="s">
-        <v>50</v>
+      <c r="A154" s="40">
+        <v>44896</v>
       </c>
       <c r="B154" s="20"/>
-      <c r="C154" s="13"/>
+      <c r="C154" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D154" s="39"/>
       <c r="E154" s="9"/>
       <c r="F154" s="20"/>
-      <c r="G154" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G154" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H154" s="39"/>
       <c r="I154" s="9"/>
@@ -6610,19 +6633,17 @@
       <c r="K154" s="20"/>
     </row>
     <row r="155" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A155" s="40">
-        <v>44927</v>
+      <c r="A155" s="48" t="s">
+        <v>50</v>
       </c>
       <c r="B155" s="20"/>
-      <c r="C155" s="13">
-        <v>1.25</v>
-      </c>
+      <c r="C155" s="13"/>
       <c r="D155" s="39"/>
       <c r="E155" s="9"/>
       <c r="F155" s="20"/>
-      <c r="G155" s="13">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
+      <c r="G155" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
       </c>
       <c r="H155" s="39"/>
       <c r="I155" s="9"/>
@@ -6630,15 +6651,19 @@
       <c r="K155" s="20"/>
     </row>
     <row r="156" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A156" s="40"/>
+      <c r="A156" s="40">
+        <v>44927</v>
+      </c>
       <c r="B156" s="20"/>
-      <c r="C156" s="13"/>
+      <c r="C156" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D156" s="39"/>
       <c r="E156" s="9"/>
       <c r="F156" s="20"/>
-      <c r="G156" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G156" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H156" s="39"/>
       <c r="I156" s="9"/>
@@ -7542,20 +7567,36 @@
       <c r="K212" s="20"/>
     </row>
     <row r="213" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A213" s="41"/>
-      <c r="B213" s="15"/>
-      <c r="C213" s="42"/>
-      <c r="D213" s="43"/>
+      <c r="A213" s="40"/>
+      <c r="B213" s="20"/>
+      <c r="C213" s="13"/>
+      <c r="D213" s="39"/>
       <c r="E213" s="9"/>
-      <c r="F213" s="15"/>
-      <c r="G213" s="42" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H213" s="43"/>
+      <c r="F213" s="20"/>
+      <c r="G213" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H213" s="39"/>
       <c r="I213" s="9"/>
-      <c r="J213" s="12"/>
-      <c r="K213" s="15"/>
+      <c r="J213" s="11"/>
+      <c r="K213" s="20"/>
+    </row>
+    <row r="214" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A214" s="41"/>
+      <c r="B214" s="15"/>
+      <c r="C214" s="42"/>
+      <c r="D214" s="43"/>
+      <c r="E214" s="9"/>
+      <c r="F214" s="15"/>
+      <c r="G214" s="42" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H214" s="43"/>
+      <c r="I214" s="9"/>
+      <c r="J214" s="12"/>
+      <c r="K214" s="15"/>
     </row>
   </sheetData>
   <mergeCells count="11">

--- a/REGULAR/ACCOUNTING/ANGCAYA, JOHN.xlsx
+++ b/REGULAR/ACCOUNTING/ANGCAYA, JOHN.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26731"/>
-  <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\dole-pc\Users\DOLE\Desktop\LEAVE-CARD\REGULAR\ACCOUNTING\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DOLE\Desktop\LEAVE-CARD\REGULAR\ACCOUNTING\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{610D698F-3AD8-4099-9938-77817929654D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12570" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="INSTRUCTION" sheetId="4" r:id="rId1"/>
@@ -25,7 +24,7 @@
     <definedName name="BALANCE_1">Table1[[#Headers],[BALANCE]]</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="1">Sheet1!$1:$9</definedName>
   </definedNames>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -35,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="218" uniqueCount="131">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="220" uniqueCount="133">
   <si>
     <t>PERIOD</t>
   </si>
@@ -428,12 +427,18 @@
   </si>
   <si>
     <t>TOTAL LEAVE BALANCE</t>
+  </si>
+  <si>
+    <t>FL(3-0-0)</t>
+  </si>
+  <si>
+    <t>10/20,23,24/2023</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="4">
     <numFmt numFmtId="164" formatCode="0.000"/>
     <numFmt numFmtId="165" formatCode="mm/dd/yy;@"/>
@@ -1296,7 +1301,7 @@
         <xdr:cNvPr id="7" name="Picture 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3B5D8F3C-4FD5-4318-83F6-163B56792B3A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{3B5D8F3C-4FD5-4318-83F6-163B56792B3A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1339,7 +1344,7 @@
         <xdr:cNvPr id="5" name="TextBox 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A0BAE224-67DC-A2F7-0A1F-28CB86DFB7CA}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A0BAE224-67DC-A2F7-0A1F-28CB86DFB7CA}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1403,7 +1408,7 @@
         <xdr:cNvPr id="4" name="Arrow: Left 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7243AC54-FD55-C7CF-DEF3-E45E6F99CAA1}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{7243AC54-FD55-C7CF-DEF3-E45E6F99CAA1}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1463,7 +1468,7 @@
         <xdr:cNvPr id="8" name="Oval 7">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6CEC4AD9-D5D6-0CFD-8D82-CC23F90E3707}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{6CEC4AD9-D5D6-0CFD-8D82-CC23F90E3707}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1529,7 +1534,7 @@
         <xdr:cNvPr id="9" name="Arrow: Left-Right 8">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EAE8B24D-B9B9-4AB0-AE94-782594B55A03}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{EAE8B24D-B9B9-4AB0-AE94-782594B55A03}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1592,7 +1597,7 @@
         <xdr:cNvPr id="10" name="TextBox 9">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D163C4F0-3D7F-3E52-4B17-0D29F1241915}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{D163C4F0-3D7F-3E52-4B17-0D29F1241915}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1690,7 +1695,7 @@
         <xdr:cNvPr id="14" name="Straight Arrow Connector 13">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{642CA079-93A1-34E3-CEF5-F7D33015D895}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{642CA079-93A1-34E3-CEF5-F7D33015D895}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1749,7 +1754,7 @@
         <xdr:cNvPr id="19" name="TextBox 18">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{784FECEA-1780-3E7F-7EBB-9F8254797C91}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{784FECEA-1780-3E7F-7EBB-9F8254797C91}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1814,7 +1819,7 @@
         <xdr:cNvPr id="20" name="Picture 19">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5DCCE859-255F-F039-E92D-1510F02C6167}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{5DCCE859-255F-F039-E92D-1510F02C6167}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1857,7 +1862,7 @@
         <xdr:cNvPr id="21" name="TextBox 20">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0A7AA7C6-9540-EB37-E3D2-9A2A68BD6824}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{0A7AA7C6-9540-EB37-E3D2-9A2A68BD6824}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1932,7 +1937,7 @@
         <xdr:cNvPr id="22" name="TextBox 21">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F1674299-9801-A253-3871-18715F4FF740}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{F1674299-9801-A253-3871-18715F4FF740}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2118,7 +2123,7 @@
         <xdr:cNvPr id="23" name="Oval 22">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{66C92862-99CA-461F-932E-30DFD0874402}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{66C92862-99CA-461F-932E-30DFD0874402}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2184,7 +2189,7 @@
         <xdr:cNvPr id="24" name="Straight Arrow Connector 23">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FD20A152-8288-4C69-BE76-AD8E41A960CE}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{FD20A152-8288-4C69-BE76-AD8E41A960CE}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2242,7 +2247,7 @@
         <xdr:cNvPr id="26" name="Oval 25">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EE7E56BE-0B3E-4110-A5A9-44C888A46B90}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{EE7E56BE-0B3E-4110-A5A9-44C888A46B90}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2308,7 +2313,7 @@
         <xdr:cNvPr id="27" name="Straight Arrow Connector 26">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C33E41C1-1592-4272-A561-4833666913C5}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{C33E41C1-1592-4272-A561-4833666913C5}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2364,7 +2369,7 @@
         <xdr:cNvPr id="30" name="TextBox 29">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6C655B57-0D66-4740-B73E-75D1E106F99A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{6C655B57-0D66-4740-B73E-75D1E106F99A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2439,7 +2444,7 @@
         <xdr:cNvPr id="31" name="Picture 30">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0284C105-1E11-4529-B509-D655B8C5279A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{0284C105-1E11-4529-B509-D655B8C5279A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2482,7 +2487,7 @@
         <xdr:cNvPr id="32" name="Oval 31">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E73E9A40-2B3C-47DC-9C07-7C65795CE0A2}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{E73E9A40-2B3C-47DC-9C07-7C65795CE0A2}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2548,7 +2553,7 @@
         <xdr:cNvPr id="33" name="Straight Arrow Connector 32">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{32002197-8137-42BA-B3E7-2690738DB64B}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{32002197-8137-42BA-B3E7-2690738DB64B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2604,7 +2609,7 @@
         <xdr:cNvPr id="34" name="TextBox 33">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A781E01A-37B6-4259-9759-556FE6893D51}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A781E01A-37B6-4259-9759-556FE6893D51}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2702,7 +2707,7 @@
         <xdr:cNvPr id="2" name="Rectangle 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C99D8E5F-2D60-FF91-2593-A29CC276458B}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{C99D8E5F-2D60-FF91-2593-A29CC276458B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2765,7 +2770,7 @@
         <xdr:cNvPr id="3" name="Rectangle 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D7E6A331-FC2C-4EF9-8F5B-65908D453D1C}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{D7E6A331-FC2C-4EF9-8F5B-65908D453D1C}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2814,7 +2819,7 @@
 </file>
 
 <file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="Sheet1"/>
@@ -2831,26 +2836,26 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1" displayName="Table1" ref="A8:K215" totalsRowShown="0" headerRowDxfId="24" headerRowBorderDxfId="23" tableBorderDxfId="22" totalsRowBorderDxfId="21">
-  <autoFilter ref="A8:K215" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A8:K215" totalsRowShown="0" headerRowDxfId="24" headerRowBorderDxfId="23" tableBorderDxfId="22" totalsRowBorderDxfId="21">
+  <autoFilter ref="A8:K215"/>
   <tableColumns count="11">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="PERIOD" dataDxfId="20"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="PARTICULARS" dataDxfId="19"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="EARNED" dataDxfId="18"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="Absence Undertime W/ Pay" dataDxfId="17"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="BALANCE" dataDxfId="16">
+    <tableColumn id="1" name="PERIOD" dataDxfId="20"/>
+    <tableColumn id="2" name="PARTICULARS" dataDxfId="19"/>
+    <tableColumn id="3" name="EARNED" dataDxfId="18"/>
+    <tableColumn id="4" name="Absence Undertime W/ Pay" dataDxfId="17"/>
+    <tableColumn id="5" name="BALANCE" dataDxfId="16">
       <calculatedColumnFormula>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="Absence Undertime W/O Pay" dataDxfId="15"/>
-    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="EARNED " dataDxfId="14">
+    <tableColumn id="6" name="Absence Undertime W/O Pay" dataDxfId="15"/>
+    <tableColumn id="7" name="EARNED " dataDxfId="14">
       <calculatedColumnFormula>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="Absence Undertime  W/ Pay" dataDxfId="13"/>
-    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0000-000009000000}" name="BALANCE " dataDxfId="12">
+    <tableColumn id="8" name="Absence Undertime  W/ Pay" dataDxfId="13"/>
+    <tableColumn id="9" name="BALANCE " dataDxfId="12">
       <calculatedColumnFormula>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0000-00000A000000}" name="Absence Undertime  W/O Pay" dataDxfId="11"/>
-    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0000-00000B000000}" name="REMARKS" dataDxfId="10"/>
+    <tableColumn id="10" name="Absence Undertime  W/O Pay" dataDxfId="11"/>
+    <tableColumn id="11" name="REMARKS" dataDxfId="10"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
   <extLst>
@@ -2862,13 +2867,13 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="Table2" displayName="Table2" ref="D2:G3" totalsRowShown="0" headerRowDxfId="9" headerRowBorderDxfId="8" tableBorderDxfId="7" totalsRowBorderDxfId="6">
-  <autoFilter ref="D2:G3" xr:uid="{00000000-0009-0000-0100-000002000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table2" displayName="Table2" ref="D2:G3" totalsRowShown="0" headerRowDxfId="9" headerRowBorderDxfId="8" tableBorderDxfId="7" totalsRowBorderDxfId="6">
+  <autoFilter ref="D2:G3"/>
   <tableColumns count="4">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0100-000001000000}" name="DAYS"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0100-000002000000}" name="HOURS"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0100-000003000000}" name="MINUTES"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0100-000004000000}" name="EQUIVALENT HOURS" dataDxfId="5">
+    <tableColumn id="1" name="DAYS"/>
+    <tableColumn id="2" name="HOURS"/>
+    <tableColumn id="3" name="MINUTES"/>
+    <tableColumn id="4" name="EQUIVALENT HOURS" dataDxfId="5">
       <calculatedColumnFormula>SUMIFS(F7:F14,E7:E14,E3)+SUMIFS(D7:D66,C7:C66,F3)+D3</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -2877,14 +2882,14 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{00000000-000C-0000-FFFF-FFFF02000000}" name="Table3" displayName="Table3" ref="J2:L3" totalsRowShown="0" headerRowBorderDxfId="4" tableBorderDxfId="3">
-  <autoFilter ref="J2:L3" xr:uid="{00000000-0009-0000-0100-000003000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Table3" displayName="Table3" ref="J2:L3" totalsRowShown="0" headerRowBorderDxfId="4" tableBorderDxfId="3">
+  <autoFilter ref="J2:L3"/>
   <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0200-000001000000}" name="DATE STARTED" dataDxfId="2"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0200-000002000000}" name="LEAVE EARN" dataDxfId="1">
+    <tableColumn id="1" name="DATE STARTED" dataDxfId="2"/>
+    <tableColumn id="2" name="LEAVE EARN" dataDxfId="1">
       <calculatedColumnFormula>J4-1</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0200-000003000000}" name="LEAVE EARNED" dataDxfId="0">
+    <tableColumn id="3" name="LEAVE EARNED" dataDxfId="0">
       <calculatedColumnFormula>IF($J$4=1,1.25,IF(ISBLANK($J$3),"---",1.25-VLOOKUP($K$3,$I$8:$K$37,2)))</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -3188,7 +3193,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1">
     <tabColor rgb="FFFF0000"/>
   </sheetPr>
@@ -3198,7 +3203,7 @@
       <selection activeCell="Z62" sqref="Z62"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -3206,34 +3211,34 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A2:K215"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="3696" topLeftCell="A153" activePane="bottomLeft"/>
+      <pane ySplit="3690" topLeftCell="A153" activePane="bottomLeft"/>
       <selection activeCell="K8" sqref="K8"/>
-      <selection pane="bottomLeft" activeCell="B163" sqref="B163"/>
+      <selection pane="bottomLeft" activeCell="K166" sqref="K166"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.33203125" style="1" customWidth="1"/>
-    <col min="2" max="2" width="16.5546875" style="1" customWidth="1"/>
-    <col min="3" max="3" width="12.109375" style="30" customWidth="1"/>
-    <col min="4" max="4" width="12.6640625" style="1" customWidth="1"/>
-    <col min="5" max="5" width="11.6640625" style="1" customWidth="1"/>
-    <col min="6" max="6" width="12.6640625" style="1" customWidth="1"/>
-    <col min="7" max="7" width="12.109375" style="30" customWidth="1"/>
-    <col min="8" max="8" width="12.6640625" style="1" customWidth="1"/>
-    <col min="9" max="9" width="11.6640625" style="1" customWidth="1"/>
-    <col min="10" max="10" width="12.6640625" style="1" customWidth="1"/>
-    <col min="11" max="11" width="24.88671875" style="1" customWidth="1"/>
+    <col min="1" max="1" width="10.28515625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="16.5703125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="12.140625" style="30" customWidth="1"/>
+    <col min="4" max="4" width="12.7109375" style="1" customWidth="1"/>
+    <col min="5" max="5" width="11.7109375" style="1" customWidth="1"/>
+    <col min="6" max="6" width="12.7109375" style="1" customWidth="1"/>
+    <col min="7" max="7" width="12.140625" style="30" customWidth="1"/>
+    <col min="8" max="8" width="12.7109375" style="1" customWidth="1"/>
+    <col min="9" max="9" width="11.7109375" style="1" customWidth="1"/>
+    <col min="10" max="10" width="12.7109375" style="1" customWidth="1"/>
+    <col min="11" max="11" width="24.85546875" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:11" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:11" ht="20.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="29" t="s">
         <v>9</v>
       </c>
@@ -3254,7 +3259,7 @@
       <c r="J2" s="53"/>
       <c r="K2" s="54"/>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="18" t="s">
         <v>15</v>
       </c>
@@ -3274,7 +3279,7 @@
       <c r="J3" s="55"/>
       <c r="K3" s="56"/>
     </row>
-    <row r="4" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:11" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="18" t="s">
         <v>16</v>
       </c>
@@ -3296,7 +3301,7 @@
       <c r="J4" s="57"/>
       <c r="K4" s="58"/>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="16"/>
       <c r="H5" s="27" t="s">
         <v>18</v>
@@ -3304,7 +3309,7 @@
       <c r="I5" s="27"/>
       <c r="K5" s="4"/>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" s="17"/>
       <c r="B6" s="8"/>
       <c r="C6" s="31"/>
@@ -3317,7 +3322,7 @@
       <c r="J6" s="8"/>
       <c r="K6" s="19"/>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="14"/>
       <c r="B7" s="14"/>
       <c r="C7" s="51" t="s">
@@ -3334,7 +3339,7 @@
       <c r="J7" s="51"/>
       <c r="K7" s="14"/>
     </row>
-    <row r="8" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A8" s="7" t="s">
         <v>0</v>
       </c>
@@ -3369,7 +3374,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" s="23"/>
       <c r="B9" s="24" t="s">
         <v>23</v>
@@ -3378,7 +3383,7 @@
       <c r="D9" s="11"/>
       <c r="E9" s="13">
         <f>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</f>
-        <v>134.13400000000001</v>
+        <v>133.63400000000001</v>
       </c>
       <c r="F9" s="11"/>
       <c r="G9" s="13" t="str">
@@ -3388,12 +3393,12 @@
       <c r="H9" s="11"/>
       <c r="I9" s="13">
         <f>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</f>
-        <v>133.05000000000001</v>
+        <v>135.55000000000001</v>
       </c>
       <c r="J9" s="11"/>
       <c r="K9" s="20"/>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" s="40"/>
       <c r="B10" s="20"/>
       <c r="C10" s="13"/>
@@ -3413,7 +3418,7 @@
       <c r="J10" s="11"/>
       <c r="K10" s="20"/>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" s="48" t="s">
         <v>52</v>
       </c>
@@ -3431,7 +3436,7 @@
       <c r="J11" s="11"/>
       <c r="K11" s="20"/>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" s="40">
         <v>42370</v>
       </c>
@@ -3455,7 +3460,7 @@
       <c r="J12" s="11"/>
       <c r="K12" s="20"/>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" s="40">
         <v>42401</v>
       </c>
@@ -3475,7 +3480,7 @@
       <c r="J13" s="11"/>
       <c r="K13" s="20"/>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" s="40">
         <v>42430</v>
       </c>
@@ -3501,7 +3506,7 @@
         <v>42439</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" s="40"/>
       <c r="B15" s="20" t="s">
         <v>56</v>
@@ -3523,7 +3528,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16" s="40"/>
       <c r="B16" s="20" t="s">
         <v>57</v>
@@ -3543,7 +3548,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17" s="40"/>
       <c r="B17" s="20" t="s">
         <v>54</v>
@@ -3563,7 +3568,7 @@
       <c r="J17" s="11"/>
       <c r="K17" s="20"/>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18" s="40">
         <v>42461</v>
       </c>
@@ -3587,7 +3592,7 @@
       <c r="J18" s="11"/>
       <c r="K18" s="20"/>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A19" s="40">
         <v>42491</v>
       </c>
@@ -3611,7 +3616,7 @@
       <c r="J19" s="11"/>
       <c r="K19" s="20"/>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A20" s="40">
         <v>42522</v>
       </c>
@@ -3635,7 +3640,7 @@
       <c r="J20" s="11"/>
       <c r="K20" s="20"/>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A21" s="40">
         <v>42552</v>
       </c>
@@ -3659,7 +3664,7 @@
       <c r="J21" s="11"/>
       <c r="K21" s="20"/>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A22" s="40">
         <v>42583</v>
       </c>
@@ -3683,7 +3688,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A23" s="40"/>
       <c r="B23" s="20" t="s">
         <v>64</v>
@@ -3703,7 +3708,7 @@
       <c r="J23" s="11"/>
       <c r="K23" s="20"/>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A24" s="40">
         <v>42614</v>
       </c>
@@ -3723,7 +3728,7 @@
       <c r="J24" s="11"/>
       <c r="K24" s="20"/>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A25" s="40">
         <v>42644</v>
       </c>
@@ -3749,7 +3754,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A26" s="40"/>
       <c r="B26" s="20" t="s">
         <v>67</v>
@@ -3771,7 +3776,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A27" s="40"/>
       <c r="B27" s="20" t="s">
         <v>69</v>
@@ -3793,7 +3798,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A28" s="40"/>
       <c r="B28" s="20" t="s">
         <v>51</v>
@@ -3815,7 +3820,7 @@
         <v>42669</v>
       </c>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A29" s="40"/>
       <c r="B29" s="20" t="s">
         <v>71</v>
@@ -3837,7 +3842,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A30" s="40"/>
       <c r="B30" s="20" t="s">
         <v>57</v>
@@ -3857,7 +3862,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A31" s="40">
         <v>42675</v>
       </c>
@@ -3883,7 +3888,7 @@
         <v>42691</v>
       </c>
     </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A32" s="40"/>
       <c r="B32" s="20" t="s">
         <v>54</v>
@@ -3903,7 +3908,7 @@
       <c r="J32" s="11"/>
       <c r="K32" s="49"/>
     </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A33" s="40">
         <v>42705</v>
       </c>
@@ -3929,7 +3934,7 @@
         <v>42725</v>
       </c>
     </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A34" s="40"/>
       <c r="B34" s="20" t="s">
         <v>74</v>
@@ -3949,7 +3954,7 @@
       <c r="J34" s="11"/>
       <c r="K34" s="49"/>
     </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A35" s="48" t="s">
         <v>53</v>
       </c>
@@ -3967,7 +3972,7 @@
       <c r="J35" s="11"/>
       <c r="K35" s="20"/>
     </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A36" s="40">
         <v>42736</v>
       </c>
@@ -3991,7 +3996,7 @@
       <c r="J36" s="11"/>
       <c r="K36" s="20"/>
     </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A37" s="40"/>
       <c r="B37" s="20" t="s">
         <v>75</v>
@@ -4011,7 +4016,7 @@
       <c r="J37" s="11"/>
       <c r="K37" s="20"/>
     </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A38" s="40">
         <v>42767</v>
       </c>
@@ -4037,7 +4042,7 @@
         <v>42783</v>
       </c>
     </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A39" s="40"/>
       <c r="B39" s="20" t="s">
         <v>51</v>
@@ -4059,7 +4064,7 @@
         <v>42788</v>
       </c>
     </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A40" s="40"/>
       <c r="B40" s="20" t="s">
         <v>54</v>
@@ -4079,7 +4084,7 @@
       <c r="J40" s="11"/>
       <c r="K40" s="49"/>
     </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A41" s="40">
         <v>42795</v>
       </c>
@@ -4105,7 +4110,7 @@
         <v>42795</v>
       </c>
     </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A42" s="40"/>
       <c r="B42" s="20" t="s">
         <v>51</v>
@@ -4127,7 +4132,7 @@
         <v>42804</v>
       </c>
     </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A43" s="40"/>
       <c r="B43" s="20" t="s">
         <v>76</v>
@@ -4147,7 +4152,7 @@
       <c r="J43" s="11"/>
       <c r="K43" s="49"/>
     </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A44" s="40">
         <v>42826</v>
       </c>
@@ -4171,7 +4176,7 @@
       <c r="J44" s="11"/>
       <c r="K44" s="20"/>
     </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A45" s="40">
         <v>42856</v>
       </c>
@@ -4197,7 +4202,7 @@
         <v>42857</v>
       </c>
     </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A46" s="40"/>
       <c r="B46" s="20" t="s">
         <v>51</v>
@@ -4219,7 +4224,7 @@
         <v>42867</v>
       </c>
     </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A47" s="40"/>
       <c r="B47" s="20" t="s">
         <v>51</v>
@@ -4241,7 +4246,7 @@
         <v>42871</v>
       </c>
     </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A48" s="40"/>
       <c r="B48" s="20" t="s">
         <v>51</v>
@@ -4263,7 +4268,7 @@
         <v>42864</v>
       </c>
     </row>
-    <row r="49" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A49" s="40"/>
       <c r="B49" s="20" t="s">
         <v>78</v>
@@ -4283,7 +4288,7 @@
       <c r="J49" s="11"/>
       <c r="K49" s="49"/>
     </row>
-    <row r="50" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A50" s="40">
         <v>42887</v>
       </c>
@@ -4309,7 +4314,7 @@
         <v>42894</v>
       </c>
     </row>
-    <row r="51" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A51" s="40"/>
       <c r="B51" s="20" t="s">
         <v>57</v>
@@ -4329,7 +4334,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="52" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A52" s="40"/>
       <c r="B52" s="20" t="s">
         <v>57</v>
@@ -4349,7 +4354,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="53" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A53" s="40"/>
       <c r="B53" s="20" t="s">
         <v>82</v>
@@ -4369,7 +4374,7 @@
       <c r="J53" s="11"/>
       <c r="K53" s="49"/>
     </row>
-    <row r="54" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A54" s="40">
         <v>42917</v>
       </c>
@@ -4393,7 +4398,7 @@
       <c r="J54" s="11"/>
       <c r="K54" s="20"/>
     </row>
-    <row r="55" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A55" s="40"/>
       <c r="B55" s="20" t="s">
         <v>51</v>
@@ -4415,7 +4420,7 @@
         <v>42951</v>
       </c>
     </row>
-    <row r="56" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A56" s="40">
         <v>42948</v>
       </c>
@@ -4441,7 +4446,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="57" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A57" s="40"/>
       <c r="B57" s="20" t="s">
         <v>85</v>
@@ -4461,7 +4466,7 @@
       <c r="J57" s="11"/>
       <c r="K57" s="20"/>
     </row>
-    <row r="58" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A58" s="40"/>
       <c r="B58" s="20" t="s">
         <v>51</v>
@@ -4483,7 +4488,7 @@
         <v>43003</v>
       </c>
     </row>
-    <row r="59" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A59" s="40">
         <v>42979</v>
       </c>
@@ -4507,7 +4512,7 @@
       <c r="J59" s="11"/>
       <c r="K59" s="20"/>
     </row>
-    <row r="60" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A60" s="40"/>
       <c r="B60" s="20" t="s">
         <v>51</v>
@@ -4529,7 +4534,7 @@
         <v>43017</v>
       </c>
     </row>
-    <row r="61" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A61" s="40">
         <v>43009</v>
       </c>
@@ -4555,7 +4560,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="62" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A62" s="40"/>
       <c r="B62" s="20" t="s">
         <v>51</v>
@@ -4577,7 +4582,7 @@
         <v>42993</v>
       </c>
     </row>
-    <row r="63" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A63" s="40"/>
       <c r="B63" s="20" t="s">
         <v>54</v>
@@ -4597,7 +4602,7 @@
       <c r="J63" s="11"/>
       <c r="K63" s="49"/>
     </row>
-    <row r="64" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A64" s="40">
         <v>43040</v>
       </c>
@@ -4623,7 +4628,7 @@
         <v>43054</v>
       </c>
     </row>
-    <row r="65" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A65" s="40"/>
       <c r="B65" s="20" t="s">
         <v>51</v>
@@ -4645,7 +4650,7 @@
         <v>43056</v>
       </c>
     </row>
-    <row r="66" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A66" s="40">
         <v>43070</v>
       </c>
@@ -4665,7 +4670,7 @@
       <c r="J66" s="11"/>
       <c r="K66" s="20"/>
     </row>
-    <row r="67" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A67" s="48" t="s">
         <v>45</v>
       </c>
@@ -4683,7 +4688,7 @@
       <c r="J67" s="11"/>
       <c r="K67" s="20"/>
     </row>
-    <row r="68" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A68" s="40">
         <v>43101</v>
       </c>
@@ -4703,7 +4708,7 @@
       <c r="J68" s="11"/>
       <c r="K68" s="20"/>
     </row>
-    <row r="69" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A69" s="40">
         <v>43132</v>
       </c>
@@ -4729,7 +4734,7 @@
         <v>43121</v>
       </c>
     </row>
-    <row r="70" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A70" s="40">
         <v>43160</v>
       </c>
@@ -4755,7 +4760,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="71" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A71" s="40"/>
       <c r="B71" s="20" t="s">
         <v>88</v>
@@ -4777,7 +4782,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="72" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A72" s="40">
         <v>43191</v>
       </c>
@@ -4797,7 +4802,7 @@
       <c r="J72" s="11"/>
       <c r="K72" s="20"/>
     </row>
-    <row r="73" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A73" s="40">
         <v>43221</v>
       </c>
@@ -4823,7 +4828,7 @@
         <v>43227</v>
       </c>
     </row>
-    <row r="74" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A74" s="40"/>
       <c r="B74" s="15" t="s">
         <v>56</v>
@@ -4845,7 +4850,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="75" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A75" s="40"/>
       <c r="B75" s="15" t="s">
         <v>57</v>
@@ -4865,7 +4870,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="76" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A76" s="40"/>
       <c r="B76" s="15" t="s">
         <v>92</v>
@@ -4885,7 +4890,7 @@
       <c r="J76" s="12"/>
       <c r="K76" s="50"/>
     </row>
-    <row r="77" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A77" s="40">
         <v>43252</v>
       </c>
@@ -4909,7 +4914,7 @@
       <c r="J77" s="11"/>
       <c r="K77" s="20"/>
     </row>
-    <row r="78" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A78" s="40">
         <v>43282</v>
       </c>
@@ -4935,7 +4940,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="79" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A79" s="40"/>
       <c r="B79" s="20" t="s">
         <v>96</v>
@@ -4955,7 +4960,7 @@
       <c r="J79" s="11"/>
       <c r="K79" s="20"/>
     </row>
-    <row r="80" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A80" s="40">
         <v>43313</v>
       </c>
@@ -4979,7 +4984,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="81" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A81" s="40">
         <v>43344</v>
       </c>
@@ -5005,7 +5010,7 @@
         <v>43356</v>
       </c>
     </row>
-    <row r="82" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A82" s="40"/>
       <c r="B82" s="20" t="s">
         <v>56</v>
@@ -5027,7 +5032,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="83" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A83" s="40">
         <v>43374</v>
       </c>
@@ -5053,7 +5058,7 @@
         <v>43381</v>
       </c>
     </row>
-    <row r="84" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A84" s="40"/>
       <c r="B84" s="20" t="s">
         <v>71</v>
@@ -5075,7 +5080,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="85" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A85" s="40"/>
       <c r="B85" s="20" t="s">
         <v>51</v>
@@ -5097,7 +5102,7 @@
         <v>43390</v>
       </c>
     </row>
-    <row r="86" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A86" s="40">
         <v>43405</v>
       </c>
@@ -5123,7 +5128,7 @@
         <v>43418</v>
       </c>
     </row>
-    <row r="87" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A87" s="40"/>
       <c r="B87" s="20" t="s">
         <v>51</v>
@@ -5145,7 +5150,7 @@
         <v>43425</v>
       </c>
     </row>
-    <row r="88" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A88" s="40">
         <v>43435</v>
       </c>
@@ -5169,7 +5174,7 @@
       <c r="J88" s="11"/>
       <c r="K88" s="20"/>
     </row>
-    <row r="89" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A89" s="48" t="s">
         <v>46</v>
       </c>
@@ -5187,7 +5192,7 @@
       <c r="J89" s="11"/>
       <c r="K89" s="20"/>
     </row>
-    <row r="90" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A90" s="40">
         <v>43466</v>
       </c>
@@ -5213,7 +5218,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="91" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A91" s="40"/>
       <c r="B91" s="20" t="s">
         <v>102</v>
@@ -5233,7 +5238,7 @@
       <c r="J91" s="11"/>
       <c r="K91" s="20"/>
     </row>
-    <row r="92" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A92" s="40">
         <v>43497</v>
       </c>
@@ -5259,7 +5264,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="93" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A93" s="40">
         <v>43525</v>
       </c>
@@ -5283,7 +5288,7 @@
       <c r="J93" s="11"/>
       <c r="K93" s="20"/>
     </row>
-    <row r="94" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A94" s="40">
         <v>43556</v>
       </c>
@@ -5309,7 +5314,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="95" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A95" s="40"/>
       <c r="B95" s="20" t="s">
         <v>54</v>
@@ -5329,7 +5334,7 @@
       <c r="J95" s="11"/>
       <c r="K95" s="20"/>
     </row>
-    <row r="96" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A96" s="40">
         <v>43586</v>
       </c>
@@ -5355,7 +5360,7 @@
         <v>43608</v>
       </c>
     </row>
-    <row r="97" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A97" s="40"/>
       <c r="B97" s="20" t="s">
         <v>57</v>
@@ -5375,7 +5380,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="98" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A98" s="40"/>
       <c r="B98" s="20" t="s">
         <v>57</v>
@@ -5395,7 +5400,7 @@
         <v>43629</v>
       </c>
     </row>
-    <row r="99" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A99" s="40"/>
       <c r="B99" s="20" t="s">
         <v>78</v>
@@ -5415,7 +5420,7 @@
       <c r="J99" s="11"/>
       <c r="K99" s="49"/>
     </row>
-    <row r="100" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A100" s="40">
         <v>43617</v>
       </c>
@@ -5435,7 +5440,7 @@
       <c r="J100" s="11"/>
       <c r="K100" s="20"/>
     </row>
-    <row r="101" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A101" s="40">
         <v>43647</v>
       </c>
@@ -5461,7 +5466,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="102" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A102" s="40"/>
       <c r="B102" s="20" t="s">
         <v>57</v>
@@ -5481,7 +5486,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="103" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A103" s="40"/>
       <c r="B103" s="20" t="s">
         <v>51</v>
@@ -5503,7 +5508,7 @@
         <v>43670</v>
       </c>
     </row>
-    <row r="104" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A104" s="40"/>
       <c r="B104" s="20" t="s">
         <v>56</v>
@@ -5525,7 +5530,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="105" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A105" s="40">
         <v>43678</v>
       </c>
@@ -5549,7 +5554,7 @@
       <c r="J105" s="11"/>
       <c r="K105" s="20"/>
     </row>
-    <row r="106" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A106" s="40">
         <v>43709</v>
       </c>
@@ -5573,7 +5578,7 @@
       <c r="J106" s="11"/>
       <c r="K106" s="20"/>
     </row>
-    <row r="107" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A107" s="40">
         <v>43739</v>
       </c>
@@ -5599,7 +5604,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="108" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A108" s="40"/>
       <c r="B108" s="20" t="s">
         <v>51</v>
@@ -5621,7 +5626,7 @@
         <v>43768</v>
       </c>
     </row>
-    <row r="109" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A109" s="40"/>
       <c r="B109" s="20" t="s">
         <v>56</v>
@@ -5643,7 +5648,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="110" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A110" s="40"/>
       <c r="B110" s="20" t="s">
         <v>111</v>
@@ -5663,7 +5668,7 @@
       <c r="J110" s="11"/>
       <c r="K110" s="20"/>
     </row>
-    <row r="111" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A111" s="40">
         <v>43770</v>
       </c>
@@ -5687,7 +5692,7 @@
       <c r="J111" s="11"/>
       <c r="K111" s="20"/>
     </row>
-    <row r="112" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A112" s="40">
         <v>43800</v>
       </c>
@@ -5713,7 +5718,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="113" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A113" s="40"/>
       <c r="B113" s="20" t="s">
         <v>114</v>
@@ -5733,7 +5738,7 @@
       <c r="J113" s="11"/>
       <c r="K113" s="20"/>
     </row>
-    <row r="114" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A114" s="48" t="s">
         <v>47</v>
       </c>
@@ -5751,7 +5756,7 @@
       <c r="J114" s="11"/>
       <c r="K114" s="20"/>
     </row>
-    <row r="115" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A115" s="40">
         <v>43831</v>
       </c>
@@ -5775,7 +5780,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="116" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A116" s="40">
         <v>43862</v>
       </c>
@@ -5795,7 +5800,7 @@
       <c r="J116" s="11"/>
       <c r="K116" s="20"/>
     </row>
-    <row r="117" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A117" s="40">
         <v>43891</v>
       </c>
@@ -5815,7 +5820,7 @@
       <c r="J117" s="11"/>
       <c r="K117" s="20"/>
     </row>
-    <row r="118" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A118" s="40">
         <v>43922</v>
       </c>
@@ -5835,7 +5840,7 @@
       <c r="J118" s="11"/>
       <c r="K118" s="20"/>
     </row>
-    <row r="119" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A119" s="40">
         <v>43952</v>
       </c>
@@ -5855,7 +5860,7 @@
       <c r="J119" s="11"/>
       <c r="K119" s="20"/>
     </row>
-    <row r="120" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A120" s="40">
         <v>43983</v>
       </c>
@@ -5875,7 +5880,7 @@
       <c r="J120" s="11"/>
       <c r="K120" s="20"/>
     </row>
-    <row r="121" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A121" s="40">
         <v>44013</v>
       </c>
@@ -5895,7 +5900,7 @@
       <c r="J121" s="11"/>
       <c r="K121" s="20"/>
     </row>
-    <row r="122" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A122" s="40">
         <v>44044</v>
       </c>
@@ -5919,7 +5924,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="123" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A123" s="40">
         <v>44075</v>
       </c>
@@ -5939,7 +5944,7 @@
       <c r="J123" s="11"/>
       <c r="K123" s="20"/>
     </row>
-    <row r="124" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A124" s="40">
         <v>44105</v>
       </c>
@@ -5965,7 +5970,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="125" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A125" s="40">
         <v>44136</v>
       </c>
@@ -5985,7 +5990,7 @@
       <c r="J125" s="11"/>
       <c r="K125" s="20"/>
     </row>
-    <row r="126" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A126" s="40">
         <v>44166</v>
       </c>
@@ -6009,7 +6014,7 @@
       <c r="J126" s="11"/>
       <c r="K126" s="20"/>
     </row>
-    <row r="127" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A127" s="48" t="s">
         <v>48</v>
       </c>
@@ -6027,7 +6032,7 @@
       <c r="J127" s="11"/>
       <c r="K127" s="20"/>
     </row>
-    <row r="128" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A128" s="40">
         <v>44197</v>
       </c>
@@ -6053,7 +6058,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="129" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A129" s="40">
         <v>44228</v>
       </c>
@@ -6079,7 +6084,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="130" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A130" s="40">
         <v>44256</v>
       </c>
@@ -6105,7 +6110,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="131" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A131" s="40">
         <v>44287</v>
       </c>
@@ -6125,7 +6130,7 @@
       <c r="J131" s="11"/>
       <c r="K131" s="20"/>
     </row>
-    <row r="132" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A132" s="40">
         <v>44317</v>
       </c>
@@ -6145,7 +6150,7 @@
       <c r="J132" s="11"/>
       <c r="K132" s="20"/>
     </row>
-    <row r="133" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A133" s="40">
         <v>44348</v>
       </c>
@@ -6171,7 +6176,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="134" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A134" s="40">
         <v>44378</v>
       </c>
@@ -6191,7 +6196,7 @@
       <c r="J134" s="11"/>
       <c r="K134" s="20"/>
     </row>
-    <row r="135" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A135" s="40">
         <v>44409</v>
       </c>
@@ -6211,7 +6216,7 @@
       <c r="J135" s="11"/>
       <c r="K135" s="20"/>
     </row>
-    <row r="136" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A136" s="40">
         <v>44440</v>
       </c>
@@ -6231,7 +6236,7 @@
       <c r="J136" s="11"/>
       <c r="K136" s="20"/>
     </row>
-    <row r="137" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A137" s="40">
         <v>44470</v>
       </c>
@@ -6251,7 +6256,7 @@
       <c r="J137" s="11"/>
       <c r="K137" s="20"/>
     </row>
-    <row r="138" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A138" s="40">
         <v>44501</v>
       </c>
@@ -6277,7 +6282,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="139" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A139" s="40">
         <v>44531</v>
       </c>
@@ -6297,7 +6302,7 @@
       <c r="J139" s="11"/>
       <c r="K139" s="20"/>
     </row>
-    <row r="140" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A140" s="48" t="s">
         <v>49</v>
       </c>
@@ -6315,7 +6320,7 @@
       <c r="J140" s="11"/>
       <c r="K140" s="20"/>
     </row>
-    <row r="141" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A141" s="40">
         <v>44562</v>
       </c>
@@ -6341,7 +6346,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="142" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A142" s="40">
         <v>44593</v>
       </c>
@@ -6361,7 +6366,7 @@
       <c r="J142" s="11"/>
       <c r="K142" s="20"/>
     </row>
-    <row r="143" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A143" s="40">
         <v>44621</v>
       </c>
@@ -6381,7 +6386,7 @@
       <c r="J143" s="11"/>
       <c r="K143" s="20"/>
     </row>
-    <row r="144" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A144" s="40">
         <v>44652</v>
       </c>
@@ -6405,7 +6410,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="145" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A145" s="40">
         <v>44682</v>
       </c>
@@ -6425,7 +6430,7 @@
       <c r="J145" s="11"/>
       <c r="K145" s="20"/>
     </row>
-    <row r="146" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A146" s="40">
         <v>44713</v>
       </c>
@@ -6451,7 +6456,7 @@
         <v>44726</v>
       </c>
     </row>
-    <row r="147" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A147" s="40">
         <v>44743</v>
       </c>
@@ -6477,7 +6482,7 @@
         <v>44769</v>
       </c>
     </row>
-    <row r="148" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A148" s="40"/>
       <c r="B148" s="20" t="s">
         <v>57</v>
@@ -6497,7 +6502,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="149" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A149" s="40">
         <v>44774</v>
       </c>
@@ -6517,7 +6522,7 @@
       <c r="J149" s="11"/>
       <c r="K149" s="20"/>
     </row>
-    <row r="150" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A150" s="40">
         <v>44805</v>
       </c>
@@ -6543,7 +6548,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="151" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A151" s="40">
         <v>44835</v>
       </c>
@@ -6569,7 +6574,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="152" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A152" s="40"/>
       <c r="B152" s="20" t="s">
         <v>51</v>
@@ -6591,7 +6596,7 @@
         <v>44845</v>
       </c>
     </row>
-    <row r="153" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A153" s="40">
         <v>44866</v>
       </c>
@@ -6617,7 +6622,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="154" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A154" s="40">
         <v>44896</v>
       </c>
@@ -6643,7 +6648,7 @@
         <v>44917</v>
       </c>
     </row>
-    <row r="155" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A155" s="40"/>
       <c r="B155" s="20" t="s">
         <v>128</v>
@@ -6663,7 +6668,7 @@
       <c r="J155" s="11"/>
       <c r="K155" s="49"/>
     </row>
-    <row r="156" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A156" s="48" t="s">
         <v>50</v>
       </c>
@@ -6681,7 +6686,7 @@
       <c r="J156" s="11"/>
       <c r="K156" s="20"/>
     </row>
-    <row r="157" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A157" s="40">
         <v>44927</v>
       </c>
@@ -6701,7 +6706,7 @@
       <c r="J157" s="11"/>
       <c r="K157" s="20"/>
     </row>
-    <row r="158" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A158" s="40">
         <v>44958</v>
       </c>
@@ -6721,7 +6726,7 @@
       <c r="J158" s="11"/>
       <c r="K158" s="20"/>
     </row>
-    <row r="159" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A159" s="40">
         <v>44986</v>
       </c>
@@ -6747,7 +6752,7 @@
         <v>45000</v>
       </c>
     </row>
-    <row r="160" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A160" s="40">
         <v>45017</v>
       </c>
@@ -6767,7 +6772,7 @@
       <c r="J160" s="11"/>
       <c r="K160" s="20"/>
     </row>
-    <row r="161" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A161" s="40">
         <v>45047</v>
       </c>
@@ -6787,7 +6792,7 @@
       <c r="J161" s="11"/>
       <c r="K161" s="20"/>
     </row>
-    <row r="162" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="162" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A162" s="40">
         <v>45078</v>
       </c>
@@ -6811,7 +6816,7 @@
         <v>45090</v>
       </c>
     </row>
-    <row r="163" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="163" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A163" s="40">
         <v>45108</v>
       </c>
@@ -6831,20 +6836,22 @@
       <c r="J163" s="11"/>
       <c r="K163" s="20"/>
     </row>
-    <row r="164" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A164" s="40">
         <v>45139</v>
       </c>
       <c r="B164" s="20" t="s">
         <v>57</v>
       </c>
-      <c r="C164" s="13"/>
+      <c r="C164" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D164" s="39"/>
       <c r="E164" s="9"/>
       <c r="F164" s="20"/>
-      <c r="G164" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G164" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H164" s="39"/>
       <c r="I164" s="9"/>
@@ -6853,31 +6860,37 @@
         <v>45160</v>
       </c>
     </row>
-    <row r="165" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A165" s="40">
         <v>45170</v>
       </c>
       <c r="B165" s="20"/>
-      <c r="C165" s="13"/>
+      <c r="C165" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D165" s="39"/>
       <c r="E165" s="9"/>
       <c r="F165" s="20"/>
-      <c r="G165" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G165" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H165" s="39"/>
       <c r="I165" s="9"/>
       <c r="J165" s="11"/>
       <c r="K165" s="20"/>
     </row>
-    <row r="166" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="166" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A166" s="40">
         <v>45200</v>
       </c>
-      <c r="B166" s="20"/>
+      <c r="B166" s="20" t="s">
+        <v>131</v>
+      </c>
       <c r="C166" s="13"/>
-      <c r="D166" s="39"/>
+      <c r="D166" s="39">
+        <v>3</v>
+      </c>
       <c r="E166" s="9"/>
       <c r="F166" s="20"/>
       <c r="G166" s="13" t="str">
@@ -6887,9 +6900,11 @@
       <c r="H166" s="39"/>
       <c r="I166" s="9"/>
       <c r="J166" s="11"/>
-      <c r="K166" s="20"/>
-    </row>
-    <row r="167" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="K166" s="20" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="167" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A167" s="40">
         <v>45231</v>
       </c>
@@ -6907,7 +6922,7 @@
       <c r="J167" s="11"/>
       <c r="K167" s="20"/>
     </row>
-    <row r="168" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="168" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A168" s="40">
         <v>45261</v>
       </c>
@@ -6925,7 +6940,7 @@
       <c r="J168" s="11"/>
       <c r="K168" s="20"/>
     </row>
-    <row r="169" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="169" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A169" s="40">
         <v>45292</v>
       </c>
@@ -6943,7 +6958,7 @@
       <c r="J169" s="11"/>
       <c r="K169" s="20"/>
     </row>
-    <row r="170" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="170" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A170" s="40">
         <v>45323</v>
       </c>
@@ -6961,7 +6976,7 @@
       <c r="J170" s="11"/>
       <c r="K170" s="20"/>
     </row>
-    <row r="171" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="171" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A171" s="40">
         <v>45352</v>
       </c>
@@ -6979,7 +6994,7 @@
       <c r="J171" s="11"/>
       <c r="K171" s="20"/>
     </row>
-    <row r="172" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="172" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A172" s="40">
         <v>45383</v>
       </c>
@@ -6997,7 +7012,7 @@
       <c r="J172" s="11"/>
       <c r="K172" s="20"/>
     </row>
-    <row r="173" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="173" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A173" s="40">
         <v>45413</v>
       </c>
@@ -7015,7 +7030,7 @@
       <c r="J173" s="11"/>
       <c r="K173" s="20"/>
     </row>
-    <row r="174" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="174" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A174" s="40">
         <v>45444</v>
       </c>
@@ -7033,7 +7048,7 @@
       <c r="J174" s="11"/>
       <c r="K174" s="20"/>
     </row>
-    <row r="175" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="175" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A175" s="40">
         <v>45474</v>
       </c>
@@ -7051,7 +7066,7 @@
       <c r="J175" s="11"/>
       <c r="K175" s="20"/>
     </row>
-    <row r="176" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="176" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A176" s="40">
         <v>45505</v>
       </c>
@@ -7069,7 +7084,7 @@
       <c r="J176" s="11"/>
       <c r="K176" s="20"/>
     </row>
-    <row r="177" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="177" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A177" s="40">
         <v>45536</v>
       </c>
@@ -7087,7 +7102,7 @@
       <c r="J177" s="11"/>
       <c r="K177" s="20"/>
     </row>
-    <row r="178" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="178" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A178" s="40">
         <v>45566</v>
       </c>
@@ -7105,7 +7120,7 @@
       <c r="J178" s="11"/>
       <c r="K178" s="20"/>
     </row>
-    <row r="179" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="179" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A179" s="40">
         <v>45597</v>
       </c>
@@ -7123,7 +7138,7 @@
       <c r="J179" s="11"/>
       <c r="K179" s="20"/>
     </row>
-    <row r="180" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="180" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A180" s="40">
         <v>45627</v>
       </c>
@@ -7141,7 +7156,7 @@
       <c r="J180" s="11"/>
       <c r="K180" s="20"/>
     </row>
-    <row r="181" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="181" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A181" s="40">
         <v>45658</v>
       </c>
@@ -7159,7 +7174,7 @@
       <c r="J181" s="11"/>
       <c r="K181" s="20"/>
     </row>
-    <row r="182" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="182" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A182" s="40">
         <v>45689</v>
       </c>
@@ -7177,7 +7192,7 @@
       <c r="J182" s="11"/>
       <c r="K182" s="20"/>
     </row>
-    <row r="183" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="183" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A183" s="40">
         <v>45717</v>
       </c>
@@ -7195,7 +7210,7 @@
       <c r="J183" s="11"/>
       <c r="K183" s="20"/>
     </row>
-    <row r="184" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="184" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A184" s="40">
         <v>45748</v>
       </c>
@@ -7213,7 +7228,7 @@
       <c r="J184" s="11"/>
       <c r="K184" s="20"/>
     </row>
-    <row r="185" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="185" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A185" s="40">
         <v>45778</v>
       </c>
@@ -7231,7 +7246,7 @@
       <c r="J185" s="11"/>
       <c r="K185" s="20"/>
     </row>
-    <row r="186" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="186" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A186" s="40">
         <v>45809</v>
       </c>
@@ -7249,7 +7264,7 @@
       <c r="J186" s="11"/>
       <c r="K186" s="20"/>
     </row>
-    <row r="187" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="187" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A187" s="40">
         <v>45839</v>
       </c>
@@ -7267,7 +7282,7 @@
       <c r="J187" s="11"/>
       <c r="K187" s="20"/>
     </row>
-    <row r="188" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="188" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A188" s="40">
         <v>45870</v>
       </c>
@@ -7285,7 +7300,7 @@
       <c r="J188" s="11"/>
       <c r="K188" s="20"/>
     </row>
-    <row r="189" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="189" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A189" s="40">
         <v>45901</v>
       </c>
@@ -7303,7 +7318,7 @@
       <c r="J189" s="11"/>
       <c r="K189" s="20"/>
     </row>
-    <row r="190" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="190" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A190" s="40">
         <v>45931</v>
       </c>
@@ -7321,7 +7336,7 @@
       <c r="J190" s="11"/>
       <c r="K190" s="20"/>
     </row>
-    <row r="191" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="191" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A191" s="40">
         <v>45962</v>
       </c>
@@ -7339,7 +7354,7 @@
       <c r="J191" s="11"/>
       <c r="K191" s="20"/>
     </row>
-    <row r="192" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="192" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A192" s="40">
         <v>45992</v>
       </c>
@@ -7357,7 +7372,7 @@
       <c r="J192" s="11"/>
       <c r="K192" s="20"/>
     </row>
-    <row r="193" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="193" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A193" s="40">
         <v>46023</v>
       </c>
@@ -7375,7 +7390,7 @@
       <c r="J193" s="11"/>
       <c r="K193" s="20"/>
     </row>
-    <row r="194" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="194" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A194" s="40">
         <v>46054</v>
       </c>
@@ -7393,7 +7408,7 @@
       <c r="J194" s="11"/>
       <c r="K194" s="20"/>
     </row>
-    <row r="195" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="195" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A195" s="40">
         <v>46082</v>
       </c>
@@ -7411,7 +7426,7 @@
       <c r="J195" s="11"/>
       <c r="K195" s="20"/>
     </row>
-    <row r="196" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="196" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A196" s="40">
         <v>46113</v>
       </c>
@@ -7429,7 +7444,7 @@
       <c r="J196" s="11"/>
       <c r="K196" s="20"/>
     </row>
-    <row r="197" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="197" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A197" s="40">
         <v>46143</v>
       </c>
@@ -7447,7 +7462,7 @@
       <c r="J197" s="11"/>
       <c r="K197" s="20"/>
     </row>
-    <row r="198" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="198" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A198" s="40">
         <v>46174</v>
       </c>
@@ -7465,7 +7480,7 @@
       <c r="J198" s="11"/>
       <c r="K198" s="20"/>
     </row>
-    <row r="199" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="199" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A199" s="40">
         <v>46204</v>
       </c>
@@ -7483,7 +7498,7 @@
       <c r="J199" s="11"/>
       <c r="K199" s="20"/>
     </row>
-    <row r="200" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="200" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A200" s="40">
         <v>46235</v>
       </c>
@@ -7501,7 +7516,7 @@
       <c r="J200" s="11"/>
       <c r="K200" s="20"/>
     </row>
-    <row r="201" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="201" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A201" s="40">
         <v>46266</v>
       </c>
@@ -7519,7 +7534,7 @@
       <c r="J201" s="11"/>
       <c r="K201" s="20"/>
     </row>
-    <row r="202" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="202" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A202" s="40">
         <v>46296</v>
       </c>
@@ -7537,7 +7552,7 @@
       <c r="J202" s="11"/>
       <c r="K202" s="20"/>
     </row>
-    <row r="203" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="203" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A203" s="40">
         <v>46327</v>
       </c>
@@ -7555,7 +7570,7 @@
       <c r="J203" s="11"/>
       <c r="K203" s="20"/>
     </row>
-    <row r="204" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="204" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A204" s="40">
         <v>46357</v>
       </c>
@@ -7573,7 +7588,7 @@
       <c r="J204" s="11"/>
       <c r="K204" s="20"/>
     </row>
-    <row r="205" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="205" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A205" s="40">
         <v>46388</v>
       </c>
@@ -7591,7 +7606,7 @@
       <c r="J205" s="11"/>
       <c r="K205" s="20"/>
     </row>
-    <row r="206" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="206" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A206" s="40">
         <v>46419</v>
       </c>
@@ -7609,7 +7624,7 @@
       <c r="J206" s="11"/>
       <c r="K206" s="20"/>
     </row>
-    <row r="207" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="207" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A207" s="40">
         <v>46447</v>
       </c>
@@ -7627,7 +7642,7 @@
       <c r="J207" s="11"/>
       <c r="K207" s="20"/>
     </row>
-    <row r="208" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="208" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A208" s="40"/>
       <c r="B208" s="20"/>
       <c r="C208" s="13"/>
@@ -7643,7 +7658,7 @@
       <c r="J208" s="11"/>
       <c r="K208" s="20"/>
     </row>
-    <row r="209" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="209" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A209" s="40"/>
       <c r="B209" s="20"/>
       <c r="C209" s="13"/>
@@ -7659,7 +7674,7 @@
       <c r="J209" s="11"/>
       <c r="K209" s="20"/>
     </row>
-    <row r="210" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="210" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A210" s="40"/>
       <c r="B210" s="20"/>
       <c r="C210" s="13"/>
@@ -7675,7 +7690,7 @@
       <c r="J210" s="11"/>
       <c r="K210" s="20"/>
     </row>
-    <row r="211" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="211" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A211" s="40"/>
       <c r="B211" s="20"/>
       <c r="C211" s="13"/>
@@ -7691,7 +7706,7 @@
       <c r="J211" s="11"/>
       <c r="K211" s="20"/>
     </row>
-    <row r="212" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="212" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A212" s="40"/>
       <c r="B212" s="20"/>
       <c r="C212" s="13"/>
@@ -7707,7 +7722,7 @@
       <c r="J212" s="11"/>
       <c r="K212" s="20"/>
     </row>
-    <row r="213" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="213" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A213" s="40"/>
       <c r="B213" s="20"/>
       <c r="C213" s="13"/>
@@ -7723,7 +7738,7 @@
       <c r="J213" s="11"/>
       <c r="K213" s="20"/>
     </row>
-    <row r="214" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="214" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A214" s="40"/>
       <c r="B214" s="20"/>
       <c r="C214" s="13"/>
@@ -7739,7 +7754,7 @@
       <c r="J214" s="11"/>
       <c r="K214" s="20"/>
     </row>
-    <row r="215" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="215" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A215" s="41"/>
       <c r="B215" s="15"/>
       <c r="C215" s="42"/>
@@ -7770,10 +7785,10 @@
     <mergeCell ref="F4:G4"/>
   </mergeCells>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:G2" xr:uid="{00000000-0002-0000-0100-000000000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:G2">
       <formula1>"1 - Married (and not separated), 2 - Widowed (including living common law), 3 - Separated (including living common law), 4 - Divorced (including living common law), 5 - Single (including living common law)"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:C4" xr:uid="{00000000-0002-0000-0100-000001000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:C4">
       <formula1>"PERMANENT, CO-TERMINUS, CASUAL, JOBCON"</formula1>
     </dataValidation>
   </dataValidations>
@@ -7796,7 +7811,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet3"/>
   <dimension ref="A1:L67"/>
   <sheetViews>
@@ -7804,21 +7819,21 @@
       <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="21.33203125" customWidth="1"/>
-    <col min="2" max="2" width="20.6640625" customWidth="1"/>
-    <col min="4" max="4" width="15.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="26.109375" customWidth="1"/>
-    <col min="9" max="9" width="16.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="15.33203125" customWidth="1"/>
-    <col min="11" max="11" width="14.88671875" style="37" hidden="1" customWidth="1"/>
-    <col min="12" max="12" width="15.5546875" customWidth="1"/>
+    <col min="1" max="1" width="21.28515625" customWidth="1"/>
+    <col min="2" max="2" width="20.7109375" customWidth="1"/>
+    <col min="4" max="4" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="26.140625" customWidth="1"/>
+    <col min="9" max="9" width="16.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="15.28515625" customWidth="1"/>
+    <col min="11" max="11" width="14.85546875" style="37" hidden="1" customWidth="1"/>
+    <col min="12" max="12" width="15.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="D1" s="61" t="s">
         <v>33</v>
       </c>
@@ -7831,7 +7846,7 @@
       <c r="K1" s="62"/>
       <c r="L1" s="62"/>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" s="32" t="s">
         <v>24</v>
       </c>
@@ -7860,7 +7875,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" s="11">
         <v>91.843000000000004</v>
       </c>
@@ -7890,17 +7905,17 @@
         <v>---</v>
       </c>
     </row>
-    <row r="4" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="G4" s="33"/>
       <c r="J4" s="1" t="str">
         <f>IF(TEXT(J3,"D")=1,1,TEXT(J3,"D"))</f>
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="J5" s="1"/>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>130</v>
       </c>
@@ -7924,10 +7939,10 @@
       <c r="K6" s="62"/>
       <c r="L6" s="62"/>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7" s="11">
         <f>SUM(Sheet1!E9,Sheet1!I9)</f>
-        <v>267.18400000000003</v>
+        <v>269.18400000000003</v>
       </c>
       <c r="C7" s="37">
         <v>1</v>
@@ -7955,7 +7970,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C8" s="37">
         <v>2</v>
       </c>
@@ -7981,7 +7996,7 @@
         <v>4.2000000000000003E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C9" s="37">
         <v>3</v>
       </c>
@@ -8007,7 +8022,7 @@
         <v>8.3000000000000004E-2</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C10" s="37">
         <v>4</v>
       </c>
@@ -8033,7 +8048,7 @@
         <v>0.125</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C11" s="37">
         <v>5</v>
       </c>
@@ -8059,7 +8074,7 @@
         <v>0.16700000000000001</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C12" s="37">
         <v>6</v>
       </c>
@@ -8085,7 +8100,7 @@
         <v>0.20800000000000002</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C13" s="37">
         <v>7</v>
       </c>
@@ -8111,7 +8126,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C14" s="37">
         <v>8</v>
       </c>
@@ -8137,7 +8152,7 @@
         <v>0.29199999999999998</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C15" s="37">
         <v>9</v>
       </c>
@@ -8157,7 +8172,7 @@
         <v>0.33299999999999996</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C16" s="37">
         <v>10</v>
       </c>
@@ -8177,7 +8192,7 @@
         <v>0.37499999999999994</v>
       </c>
     </row>
-    <row r="17" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="17" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C17" s="37">
         <v>11</v>
       </c>
@@ -8197,7 +8212,7 @@
         <v>0.41699999999999993</v>
       </c>
     </row>
-    <row r="18" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C18" s="37">
         <v>12</v>
       </c>
@@ -8218,7 +8233,7 @@
         <v>0.45799999999999991</v>
       </c>
     </row>
-    <row r="19" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C19" s="37">
         <v>13</v>
       </c>
@@ -8239,7 +8254,7 @@
         <v>0.49999999999999989</v>
       </c>
     </row>
-    <row r="20" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C20" s="37">
         <v>14</v>
       </c>
@@ -8260,7 +8275,7 @@
         <v>0.54199999999999993</v>
       </c>
     </row>
-    <row r="21" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C21" s="37">
         <v>15</v>
       </c>
@@ -8281,7 +8296,7 @@
         <v>0.58299999999999996</v>
       </c>
     </row>
-    <row r="22" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C22" s="37">
         <v>16</v>
       </c>
@@ -8302,7 +8317,7 @@
         <v>0.625</v>
       </c>
     </row>
-    <row r="23" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C23" s="37">
         <v>17</v>
       </c>
@@ -8323,7 +8338,7 @@
         <v>0.66700000000000004</v>
       </c>
     </row>
-    <row r="24" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C24" s="37">
         <v>18</v>
       </c>
@@ -8344,7 +8359,7 @@
         <v>0.70800000000000007</v>
       </c>
     </row>
-    <row r="25" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C25" s="37">
         <v>19</v>
       </c>
@@ -8365,7 +8380,7 @@
         <v>0.75000000000000011</v>
       </c>
     </row>
-    <row r="26" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C26" s="37">
         <v>20</v>
       </c>
@@ -8386,7 +8401,7 @@
         <v>0.79200000000000015</v>
       </c>
     </row>
-    <row r="27" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C27" s="37">
         <v>21</v>
       </c>
@@ -8407,7 +8422,7 @@
         <v>0.83300000000000018</v>
       </c>
     </row>
-    <row r="28" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C28" s="37">
         <v>22</v>
       </c>
@@ -8428,7 +8443,7 @@
         <v>0.87500000000000022</v>
       </c>
     </row>
-    <row r="29" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C29" s="37">
         <v>23</v>
       </c>
@@ -8449,7 +8464,7 @@
         <v>0.91700000000000026</v>
       </c>
     </row>
-    <row r="30" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C30" s="37">
         <v>24</v>
       </c>
@@ -8470,7 +8485,7 @@
         <v>0.9580000000000003</v>
       </c>
     </row>
-    <row r="31" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C31" s="37">
         <v>25</v>
       </c>
@@ -8491,7 +8506,7 @@
         <v>1.0000000000000002</v>
       </c>
     </row>
-    <row r="32" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C32" s="37">
         <v>26</v>
       </c>
@@ -8512,7 +8527,7 @@
         <v>1.0420000000000003</v>
       </c>
     </row>
-    <row r="33" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C33" s="37">
         <v>27</v>
       </c>
@@ -8533,7 +8548,7 @@
         <v>1.0830000000000002</v>
       </c>
     </row>
-    <row r="34" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C34" s="37">
         <v>28</v>
       </c>
@@ -8554,7 +8569,7 @@
         <v>1.1250000000000002</v>
       </c>
     </row>
-    <row r="35" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C35" s="37">
         <v>29</v>
       </c>
@@ -8575,7 +8590,7 @@
         <v>1.1670000000000003</v>
       </c>
     </row>
-    <row r="36" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C36" s="37">
         <v>30</v>
       </c>
@@ -8596,7 +8611,7 @@
         <v>1.2080000000000002</v>
       </c>
     </row>
-    <row r="37" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C37" s="37">
         <v>31</v>
       </c>
@@ -8617,7 +8632,7 @@
         <v>1.2500000000000002</v>
       </c>
     </row>
-    <row r="38" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C38" s="37">
         <v>32</v>
       </c>
@@ -8626,7 +8641,7 @@
       </c>
       <c r="G38"/>
     </row>
-    <row r="39" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C39" s="37">
         <v>33</v>
       </c>
@@ -8635,7 +8650,7 @@
       </c>
       <c r="G39"/>
     </row>
-    <row r="40" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C40" s="37">
         <v>34</v>
       </c>
@@ -8644,7 +8659,7 @@
       </c>
       <c r="G40"/>
     </row>
-    <row r="41" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="41" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C41" s="37">
         <v>35</v>
       </c>
@@ -8653,7 +8668,7 @@
       </c>
       <c r="G41"/>
     </row>
-    <row r="42" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C42" s="37">
         <v>36</v>
       </c>
@@ -8662,7 +8677,7 @@
       </c>
       <c r="G42"/>
     </row>
-    <row r="43" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="43" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C43" s="37">
         <v>37</v>
       </c>
@@ -8671,7 +8686,7 @@
       </c>
       <c r="G43"/>
     </row>
-    <row r="44" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="44" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C44" s="37">
         <v>38</v>
       </c>
@@ -8680,7 +8695,7 @@
       </c>
       <c r="G44"/>
     </row>
-    <row r="45" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="45" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C45" s="37">
         <v>39</v>
       </c>
@@ -8689,7 +8704,7 @@
       </c>
       <c r="G45"/>
     </row>
-    <row r="46" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="46" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C46" s="37">
         <v>40</v>
       </c>
@@ -8698,7 +8713,7 @@
       </c>
       <c r="G46"/>
     </row>
-    <row r="47" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="47" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C47" s="37">
         <v>41</v>
       </c>
@@ -8707,7 +8722,7 @@
       </c>
       <c r="G47"/>
     </row>
-    <row r="48" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="48" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C48" s="37">
         <v>42</v>
       </c>
@@ -8716,7 +8731,7 @@
       </c>
       <c r="G48"/>
     </row>
-    <row r="49" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="49" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C49" s="37">
         <v>43</v>
       </c>
@@ -8725,7 +8740,7 @@
       </c>
       <c r="G49"/>
     </row>
-    <row r="50" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="50" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C50" s="37">
         <v>44</v>
       </c>
@@ -8734,7 +8749,7 @@
       </c>
       <c r="G50"/>
     </row>
-    <row r="51" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="51" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C51" s="37">
         <v>45</v>
       </c>
@@ -8743,7 +8758,7 @@
       </c>
       <c r="G51"/>
     </row>
-    <row r="52" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="52" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C52" s="37">
         <v>46</v>
       </c>
@@ -8752,7 +8767,7 @@
       </c>
       <c r="G52"/>
     </row>
-    <row r="53" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="53" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C53" s="37">
         <v>47</v>
       </c>
@@ -8761,7 +8776,7 @@
       </c>
       <c r="G53"/>
     </row>
-    <row r="54" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="54" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C54" s="37">
         <v>48</v>
       </c>
@@ -8770,7 +8785,7 @@
       </c>
       <c r="G54"/>
     </row>
-    <row r="55" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="55" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C55" s="37">
         <v>49</v>
       </c>
@@ -8779,7 +8794,7 @@
       </c>
       <c r="G55"/>
     </row>
-    <row r="56" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="56" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C56" s="37">
         <v>50</v>
       </c>
@@ -8788,7 +8803,7 @@
       </c>
       <c r="G56"/>
     </row>
-    <row r="57" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="57" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C57" s="37">
         <v>51</v>
       </c>
@@ -8797,7 +8812,7 @@
       </c>
       <c r="G57"/>
     </row>
-    <row r="58" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="58" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C58" s="37">
         <v>52</v>
       </c>
@@ -8806,7 +8821,7 @@
       </c>
       <c r="G58"/>
     </row>
-    <row r="59" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="59" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C59" s="37">
         <v>53</v>
       </c>
@@ -8815,7 +8830,7 @@
       </c>
       <c r="G59"/>
     </row>
-    <row r="60" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="60" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C60" s="37">
         <v>54</v>
       </c>
@@ -8824,7 +8839,7 @@
       </c>
       <c r="G60"/>
     </row>
-    <row r="61" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="61" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C61" s="37">
         <v>55</v>
       </c>
@@ -8833,7 +8848,7 @@
       </c>
       <c r="G61"/>
     </row>
-    <row r="62" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="62" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C62" s="37">
         <v>56</v>
       </c>
@@ -8842,7 +8857,7 @@
       </c>
       <c r="G62"/>
     </row>
-    <row r="63" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="63" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C63" s="37">
         <v>57</v>
       </c>
@@ -8851,7 +8866,7 @@
       </c>
       <c r="G63"/>
     </row>
-    <row r="64" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="64" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C64" s="37">
         <v>58</v>
       </c>
@@ -8860,7 +8875,7 @@
       </c>
       <c r="G64"/>
     </row>
-    <row r="65" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="65" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C65" s="37">
         <v>59</v>
       </c>
@@ -8869,7 +8884,7 @@
       </c>
       <c r="G65"/>
     </row>
-    <row r="66" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="66" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C66" s="37">
         <v>60</v>
       </c>
@@ -8878,7 +8893,7 @@
       </c>
       <c r="G66"/>
     </row>
-    <row r="67" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="67" spans="3:12" x14ac:dyDescent="0.25">
       <c r="J67" s="1"/>
       <c r="K67" s="1"/>
       <c r="L67" s="1"/>
